--- a/data/trans_orig/P14C12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D4C6C3-8356-48EC-8687-10D34800683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4520973F-033A-4B5D-B49D-4BA6BC164412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DBB58DB-1ECA-4512-9BD6-52812F621248}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9CA35C3B-B615-40E0-93A9-336FD01B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>75,46%</t>
   </si>
   <si>
-    <t>34,65%</t>
+    <t>41,87%</t>
   </si>
   <si>
     <t>71,33%</t>
@@ -146,16 +146,16 @@
     <t>74,38%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>44,83%</t>
+    <t>56,03%</t>
   </si>
   <si>
     <t>28,67%</t>
@@ -164,19 +164,19 @@
     <t>16,02%</t>
   </si>
   <si>
-    <t>47,85%</t>
+    <t>47,7%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>48,73%</t>
+    <t>48,16%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>38,28%</t>
+    <t>45,53%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -185,10 +185,10 @@
     <t>60,35%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>48,45%</t>
@@ -197,19 +197,19 @@
     <t>55,89%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>39,65%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -218,10 +218,10 @@
     <t>24,8%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -233,7 +233,7 @@
     <t>19,31%</t>
   </si>
   <si>
-    <t>50,56%</t>
+    <t>58,72%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,7 +242,7 @@
     <t>60,09%</t>
   </si>
   <si>
-    <t>16,97%</t>
+    <t>16,28%</t>
   </si>
   <si>
     <t>60,31%</t>
@@ -257,16 +257,16 @@
     <t>60,23%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>39,91%</t>
   </si>
   <si>
-    <t>83,03%</t>
+    <t>83,72%</t>
   </si>
   <si>
     <t>25,95%</t>
@@ -278,10 +278,10 @@
     <t>31,18%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>13,75%</t>
@@ -293,16 +293,16 @@
     <t>8,6%</t>
   </si>
   <si>
-    <t>40,29%</t>
+    <t>41,13%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>61,18%</t>
@@ -317,19 +317,19 @@
     <t>64,94%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>20,76%</t>
@@ -344,16 +344,16 @@
     <t>24,55%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>19,89%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>18,07%</t>
@@ -368,10 +368,10 @@
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53B3555-00E0-4EAD-AC3F-FC41ADF1B1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564C57F9-BF98-410D-932D-D046D78AB200}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4520973F-033A-4B5D-B49D-4BA6BC164412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9031E87E-F77C-4098-BB3B-98EDDBE30462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9CA35C3B-B615-40E0-93A9-336FD01B9F21}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C826A190-5990-4E43-9EBC-16F2EB4FD55F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="113">
   <si>
-    <t>Población según el tiempo de diagnóstico de angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población según el tiempo de diagnóstico de angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -113,7 +113,7 @@
     <t>80,6%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>29,89%</t>
@@ -122,7 +122,7 @@
     <t>19,4%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>79,47%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -131,13 +131,13 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>75,46%</t>
   </si>
   <si>
-    <t>41,87%</t>
+    <t>35,83%</t>
   </si>
   <si>
     <t>71,33%</t>
@@ -146,16 +146,16 @@
     <t>74,38%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>56,03%</t>
+    <t>53,58%</t>
   </si>
   <si>
     <t>28,67%</t>
@@ -164,31 +164,31 @@
     <t>16,02%</t>
   </si>
   <si>
-    <t>47,7%</t>
+    <t>46,12%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>48,16%</t>
+    <t>48,88%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>48,45%</t>
@@ -197,19 +197,19 @@
     <t>55,89%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>39,65%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -218,10 +218,10 @@
     <t>24,8%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -233,7 +233,7 @@
     <t>19,31%</t>
   </si>
   <si>
-    <t>58,72%</t>
+    <t>52,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,136 +242,136 @@
     <t>60,09%</t>
   </si>
   <si>
-    <t>16,28%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>27,08%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>23,71%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564C57F9-BF98-410D-932D-D046D78AB200}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414739AB-404A-4169-A76E-3F69241EADEB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
